--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,11 +466,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>63744</v>
+        <v>63745</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Champaign,IL-Jacksonville,FL</t>
+          <t>Sterling,VA-Cowpens,SC</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -478,41 +478,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lazar Stanojevic</t>
+          <t>Bosko Virijevic</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>63743</v>
+        <v>63744</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gladstone,VA-Asheboro,NC</t>
+          <t>Champaign,IL-Jacksonville,FL</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stefan Korolija</t>
+          <t>Lazar Stanojevic</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>63742</v>
+        <v>63743</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Atlanta,GA-Gladstone,VA</t>
+          <t>Gladstone,VA-Asheboro,NC</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -529,11 +529,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>63741</v>
+        <v>63742</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Waukegan,IL-Madison,IL</t>
+          <t>Atlanta,GA-Gladstone,VA</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -541,7 +541,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Uros Marjanovic</t>
+          <t>Stefan Korolija</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -550,11 +550,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>63740</v>
+        <v>63741</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chicago,IL-Lebanon,TN</t>
+          <t>Waukegan,IL-Madison,IL</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>63739</v>
+        <v>63740</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chicago,IL-Streetsboro,OH</t>
+          <t>Chicago,IL-Lebanon,TN</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -583,49 +583,49 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Filip Rnjakovic</t>
+          <t>Uros Marjanovic</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>63738</v>
+        <v>63739</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nacogdoches,TX-Siloam Springs,AR</t>
+          <t>Chicago,IL-Streetsboro,OH</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45231</v>
+        <v>45230</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dimitrije Poznanovic</t>
+          <t>Filip Rnjakovic</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63737</v>
+        <v>63738</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Augusta,GA-Augusta,GA-Brazil,IN</t>
+          <t>Nacogdoches,TX-Siloam Springs,AR</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Filip Rnjakovic</t>
+          <t>Dimitrije Poznanovic</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -634,11 +634,11 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>63736</v>
+        <v>63737</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Salt Lake City,UT-Madison,AL</t>
+          <t>Augusta,GA-Augusta,GA-Brazil,IN</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -646,20 +646,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Stefan Miljus</t>
+          <t>Filip Rnjakovic</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>63735</v>
+        <v>63736</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Grifton,NC-Mount Vernon,IL</t>
+          <t>Salt Lake City,UT-Madison,AL</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -667,7 +667,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Branko Janicijevic</t>
+          <t>Stefan Miljus</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -676,11 +676,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>63734</v>
+        <v>63735</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hartselle,AL-Minneapolis,MN</t>
+          <t>Grifton,NC-Mount Vernon,IL</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -697,11 +697,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>63733</v>
+        <v>63734</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lithia Springs,GA-Florence,SC</t>
+          <t>Hartselle,AL-Minneapolis,MN</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -713,16 +713,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>63732</v>
+        <v>63733</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Groveport,OH-Kansas City,MO</t>
+          <t>Lithia Springs,GA-Florence,SC</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -730,20 +730,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Uros Milinovic</t>
+          <t>Branko Janicijevic</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>63731</v>
+        <v>63732</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Stow,OH-Rogers,MN</t>
+          <t>Groveport,OH-Kansas City,MO</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -760,19 +760,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>63730</v>
+        <v>63731</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Groveland,FL-Panama City,FL</t>
+          <t>Stow,OH-Rogers,MN</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45231</v>
+        <v>45230</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dusan Budimirovic</t>
+          <t>Uros Milinovic</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -781,19 +781,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>63729</v>
+        <v>63730</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>La Grange,IL-Shreveport,LA</t>
+          <t>Groveland,FL-Panama City,FL</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Uros Milinovic</t>
+          <t>Dusan Budimirovic</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -802,11 +802,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>63728</v>
+        <v>63729</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Memphis,TN-South Bend,IN</t>
+          <t>La Grange,IL-Shreveport,LA</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -823,22 +823,799 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>63728</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Memphis,TN-South Bend,IN</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Uros Milinovic</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
         <v>63727</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Chicago,IL-Hattiesburg,MS</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="C20" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Dusan Nedeljkovic</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63726</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Holland,MI-Nashville,TN-Trinity,AL-Birmingham,AL-Biloxi,MS-New Orleans,LA</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Stefan Miljus</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63725</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Philadelphia,PA-Bedford,OH</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Dusan Nedeljkovic</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63724</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Dallas,TX-Sylacauga,AL</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Uros Milinovic</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63723</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ashville,OH-Fredericksburg,VA</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Dusan Nedeljkovic</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63722</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Saint Cloud,MN-Miami,FL</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Stefan Miljus</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63721</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>York,AL-High Point,NC</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Filip Rnjakovic</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63720</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Owensboro,KY-Quitman,MS</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Filip Rnjakovic</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63719</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Lincolnton,NC-Schertz,TX</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Stefan Miljus</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63718</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Lacombe,LA-South Boston,VA</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Filip Rnjakovic</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63717</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Marion,AR-Marion,AR-Forest Park,GA</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Filip Rnjakovic</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63716</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Gray Court,SC-Jonesboro,AR</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Filip Rnjakovic</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63715</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pleasant Prairie,WI-Saint Cloud,MN</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Marko Miscevic</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63713</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Gladstone,VA-Crum Lynne,PA</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Filip Babic</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63712</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Murfreesboro,TN-Jacksonville,FL</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Filip Babic</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63711</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Wilmington,NC-Hillsville,VA</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Stefan Miljus</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63710</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Weatherford,OK-Memphis,TN</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Uros Milinovic</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63709</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Middletown,OH-Social Circle,GA</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Stefan Tasic</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63708</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Country Club Hills,IL-Dayton,TX</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Stefan Tasic</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63707</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Goodyear,AZ-Jessup,PA</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Stefan Miljus</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63706</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Hanover,PA-Dallas,TX</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Dimitrije Poznanovic</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63705</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Greensboro,NC-Riverton,NJ</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Dimitrije Poznanovic</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63704</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Greensboro,NC-Knoxville,TN</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Dimitrije Poznanovic</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63703</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Gladstone,VA-Liverpool,NY</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Stefan Korolija</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63702</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>La Vergne,TN-Gladstone,VA</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Stefan Korolija</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63701</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Lacombe,LA-Mattoon,IL</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Stefan Korolija</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63700</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Hebron,KY-Indianapolis,IN</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Marko Miscevic</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63699</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Indianapolis,IN-Hebron,KY</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Marko Miscevic</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Dalton,GA-Iron Ridge,WI</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Lazar Stanojevic</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63697</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Fort Collins,CO-Oklahoma City,OK</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Uros Marjanovic</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63696</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Blauvelt,NY-Chambersburg,PA</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Marko Miscevic</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63695</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Perris,CA-Sanger,TX</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Lazar Stanojevic</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63694</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Brookville,PA-Lynchburg,TN</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Stefan Miljus</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63693</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Schenectady,NY-Yonkers,NY</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Marko Miscevic</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63692</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Fort Mill,SC-Cedar City,UT</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Lazar Stanojevic</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63691</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Pocomoke City,MD-Martinsville,VA</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Uros Marjanovic</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63690</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Byram,MS-Winter Garden,FL</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Dusan Budimirovic</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,40 +466,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>63745</v>
+        <v>63791</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sterling,VA-Cowpens,SC</t>
+          <t>Cedar Rapids,IA-Athens,GA-Kissimmee,FL</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45231</v>
+        <v>45236</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bosko Virijevic</t>
+          <t>Uros Marjanovic</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>63744</v>
+        <v>63809</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Champaign,IL-Jacksonville,FL</t>
+          <t>West Point,VA-Indianapolis,IN</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45231</v>
+        <v>45234</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lazar Stanojevic</t>
+          <t>Nikola Radojevic</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -508,40 +508,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>63743</v>
+        <v>63808</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gladstone,VA-Asheboro,NC</t>
+          <t>Nashville,TN-Williamsburg,VA</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45230</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stefan Korolija</t>
+          <t>Nikola Radojevic</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>63742</v>
+        <v>63814</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Atlanta,GA-Gladstone,VA</t>
+          <t>Hagerstown,MD-Willard,OH-Menasha,WI</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45230</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stefan Korolija</t>
+          <t>Uros Marjanovic</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -550,15 +550,15 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>63741</v>
+        <v>63811</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Waukegan,IL-Madison,IL</t>
+          <t>Cedar Rapids,IA-Longmont,CO-Lakewood,WA</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45230</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -566,24 +566,24 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>63740</v>
+        <v>63807</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chicago,IL-Lebanon,TN</t>
+          <t>Greer,SC-Corsicana,TX</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45230</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Uros Marjanovic</t>
+          <t>Nikola Radojevic</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -592,19 +592,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>63739</v>
+        <v>63817</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chicago,IL-Streetsboro,OH</t>
+          <t>Ellensburg,WA-New Orleans,LA</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45230</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Filip Rnjakovic</t>
+          <t>Dimitrije Poznanovic</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -613,19 +613,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63738</v>
+        <v>63775</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nacogdoches,TX-Siloam Springs,AR</t>
+          <t>Anderson,SC-Addison,IL</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dimitrije Poznanovic</t>
+          <t>Dusan Budimirovic</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -634,82 +634,82 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>63737</v>
+        <v>63802</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Augusta,GA-Augusta,GA-Brazil,IN</t>
+          <t>Bethlehem,PA-Huntsville,AL</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Filip Rnjakovic</t>
+          <t>Nemanja Antonijevic</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>63736</v>
+        <v>63789</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Salt Lake City,UT-Madison,AL</t>
+          <t>West Point,VA-Cedar Rapids,IA</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Stefan Miljus</t>
+          <t>Uros Marjanovic</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>63735</v>
+        <v>63810</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Grifton,NC-Mount Vernon,IL</t>
+          <t>Franklin Park,IL-Cleveland,OH</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Branko Janicijevic</t>
+          <t>Uros Marjanovic</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>63734</v>
+        <v>63803</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hartselle,AL-Minneapolis,MN</t>
+          <t>Ashtabula,OH-Charlotte,NC</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Branko Janicijevic</t>
+          <t>Nikola Radojevic</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -718,145 +718,145 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>63733</v>
+        <v>63818</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lithia Springs,GA-Florence,SC</t>
+          <t>Roanoke,TX-Norcross,GA</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Branko Janicijevic</t>
+          <t>Dimitrije Poznanovic</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>63732</v>
+        <v>63806</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Groveport,OH-Kansas City,MO</t>
+          <t>Oxford,MS-Duluth,GA</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Uros Milinovic</t>
+          <t>Nikola Radojevic</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>63731</v>
+        <v>63799</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Stow,OH-Rogers,MN</t>
+          <t>Elkhart,IN-Nashville,TN</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Uros Milinovic</t>
+          <t>Nemanja Antonijevic</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>63730</v>
+        <v>63816</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Groveland,FL-Panama City,FL</t>
+          <t>Lexington,NC-Okolona,MS</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dusan Budimirovic</t>
+          <t>Dimitrije Poznanovic</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>63729</v>
+        <v>63788</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>La Grange,IL-Shreveport,LA</t>
+          <t>Minooka,IL-Henderson,KY</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Uros Milinovic</t>
+          <t>Nemanja Antonijevic</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>63728</v>
+        <v>63798</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Memphis,TN-South Bend,IN</t>
+          <t>Fort Walton Beach,FL-Houston,TX</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Uros Milinovic</t>
+          <t>Dusan Budimirovic</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>63727</v>
+        <v>63805</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chicago,IL-Hattiesburg,MS</t>
+          <t>Pleasant Prairie,WI-Sterling,IL</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dusan Nedeljkovic</t>
+          <t>Marko Miscevic</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -865,36 +865,36 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>63726</v>
+        <v>63786</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Holland,MI-Nashville,TN-Trinity,AL-Birmingham,AL-Biloxi,MS-New Orleans,LA</t>
+          <t>Lakewood,NJ-Fishersville,VA</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Stefan Miljus</t>
+          <t>Marko Miscevic</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>63725</v>
+        <v>63820</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Philadelphia,PA-Bedford,OH</t>
+          <t>Mobile,AL-Bastrop,LA</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -902,58 +902,58 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>63724</v>
+        <v>63819</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Dallas,TX-Sylacauga,AL</t>
+          <t>Brookville,PA-Sandusky,OH</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Uros Milinovic</t>
+          <t>Dusan Nedeljkovic</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>63723</v>
+        <v>63815</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ashville,OH-Fredericksburg,VA</t>
+          <t>Ridgeway,VA-Dalton,GA</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dusan Nedeljkovic</t>
+          <t>Filip Rnjakovic</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>63722</v>
+        <v>63813</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Saint Cloud,MN-Miami,FL</t>
+          <t>Lebanon,TN-Daytona Beach,FL</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -961,661 +961,199 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Stefan Miljus</t>
+          <t>Filip Babic</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>63721</v>
+        <v>63812</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>York,AL-High Point,NC</t>
+          <t>La Mesa,NM-Dallas,TX</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Filip Rnjakovic</t>
+          <t>Filip Babic</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>63720</v>
+        <v>63797</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Owensboro,KY-Quitman,MS</t>
+          <t>Jackson,MI-Lincolnshire,IL</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Filip Rnjakovic</t>
+          <t>Dusan Nedeljkovic</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>63719</v>
+        <v>63795</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lincolnton,NC-Schertz,TX</t>
+          <t>New Holstein,WI-Hanford,CA</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Stefan Miljus</t>
+          <t>Lazar Stanojevic</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>63718</v>
+        <v>63801</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lacombe,LA-South Boston,VA</t>
+          <t>Dallas,NC-Gainesville,GA</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Filip Rnjakovic</t>
+          <t>Bosko Virijevic</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>63717</v>
+        <v>63800</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Marion,AR-Marion,AR-Forest Park,GA</t>
+          <t>Lacombe,LA-Boynton Beach,FL</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Filip Rnjakovic</t>
+          <t>Marko Miscevic</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>63716</v>
+        <v>63796</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gray Court,SC-Jonesboro,AR</t>
+          <t>Sapulpa,OK-Cartersville,GA</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Filip Rnjakovic</t>
+          <t>Bosko Virijevic</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>63715</v>
+        <v>63787</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pleasant Prairie,WI-Saint Cloud,MN</t>
+          <t>Mobile,AL-Green Bay,WI</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Marko Miscevic</t>
+          <t>Bosko Virijevic</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>63713</v>
+        <v>63780</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gladstone,VA-Crum Lynne,PA</t>
+          <t>North Las Vegas,NV-La Habra,CA</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Filip Babic</t>
+          <t>Bosko Virijevic</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>63712</v>
+        <v>63804</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Murfreesboro,TN-Jacksonville,FL</t>
+          <t>Hazleton,PA-Crossville,TN</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Filip Babic</t>
+          <t>Nikola Radojevic</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>63711</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Wilmington,NC-Hillsville,VA</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Stefan Miljus</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>63710</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Weatherford,OK-Memphis,TN</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Uros Milinovic</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>63709</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Middletown,OH-Social Circle,GA</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>45227</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Stefan Tasic</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>63708</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Country Club Hills,IL-Dayton,TX</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Stefan Tasic</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>63707</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Goodyear,AZ-Jessup,PA</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Stefan Miljus</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>63706</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Hanover,PA-Dallas,TX</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Dimitrije Poznanovic</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>63705</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Greensboro,NC-Riverton,NJ</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Dimitrije Poznanovic</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>63704</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Greensboro,NC-Knoxville,TN</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Dimitrije Poznanovic</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>63703</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Gladstone,VA-Liverpool,NY</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>45231</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Stefan Korolija</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>63702</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>La Vergne,TN-Gladstone,VA</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Stefan Korolija</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>63701</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Lacombe,LA-Mattoon,IL</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Stefan Korolija</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>63700</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Hebron,KY-Indianapolis,IN</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Marko Miscevic</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>63699</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Indianapolis,IN-Hebron,KY</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Marko Miscevic</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>63698</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Dalton,GA-Iron Ridge,WI</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Lazar Stanojevic</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>63697</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Fort Collins,CO-Oklahoma City,OK</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Uros Marjanovic</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>63696</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Blauvelt,NY-Chambersburg,PA</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Marko Miscevic</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>63695</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Perris,CA-Sanger,TX</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Lazar Stanojevic</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>63694</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Brookville,PA-Lynchburg,TN</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Stefan Miljus</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>63693</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Schenectady,NY-Yonkers,NY</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Marko Miscevic</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>63692</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Fort Mill,SC-Cedar City,UT</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Lazar Stanojevic</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>63691</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Pocomoke City,MD-Martinsville,VA</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Uros Marjanovic</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>63690</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Byram,MS-Winter Garden,FL</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Dusan Budimirovic</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
